--- a/biology/Médecine/Fleury_Rebatel/Fleury_Rebatel.xlsx
+++ b/biology/Médecine/Fleury_Rebatel/Fleury_Rebatel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fleury Rebatel (1845-1905), est un médecin et un homme politique français. Il a en particulier été président du conseil général du Rhône[1]. Sur le plan médical, il a dirigé la maison de santé de Champvert. Il est également connu pour avoir été l'un des médecins chargés d'examiner Joseph Vacher, suspecté d'avoir assassiné, à la fin du XIXe siècle, plusieurs jeunes personnes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleury Rebatel (1845-1905), est un médecin et un homme politique français. Il a en particulier été président du conseil général du Rhône. Sur le plan médical, il a dirigé la maison de santé de Champvert. Il est également connu pour avoir été l'un des médecins chargés d'examiner Joseph Vacher, suspecté d'avoir assassiné, à la fin du XIXe siècle, plusieurs jeunes personnes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a une Rue du Docteur-Rebatel à Lyon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a une Rue du Docteur-Rebatel à Lyon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa fille Blanche Rebatel (1877-1962) épouse Édouard Herriot à Lyon le 28 octobre 1899.
 </t>
